--- a/New Microsoft Excel Worksheet (2) (Autosaved).xlsx
+++ b/New Microsoft Excel Worksheet (2) (Autosaved).xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -149,9 +149,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -219,7 +219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -298,6 +298,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E21-466A-8067-3C1377C862B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -368,6 +373,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E21-466A-8067-3C1377C862B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -438,6 +448,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E21-466A-8067-3C1377C862B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -508,6 +523,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E21-466A-8067-3C1377C862B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -585,7 +605,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -623,7 +643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1951189792"/>
@@ -706,7 +726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -738,7 +758,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1951187616"/>
@@ -781,7 +801,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -811,7 +831,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2221,7 +2241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2513,7 +2533,7 @@
       <selection activeCell="G9" sqref="G9:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="52.5703125" customWidth="1"/>
   </cols>
@@ -2811,10 +2831,10 @@
   <dimension ref="C4:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2892,8 +2912,8 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5">
-        <f>(D5+E5*0.1^F5)*(1+G5*LN(M5/I5))*(1-((L5-J5)/(K5-J5))^H5)</f>
-        <v>903.64458422484927</v>
+        <f>(D5+E5*0.2^F5)*(1+G5*LN(M5/I5))*(1-((L5-J5)/(K5-J5))^H5)</f>
+        <v>948.88970196062292</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">

--- a/New Microsoft Excel Worksheet (2) (Autosaved).xlsx
+++ b/New Microsoft Excel Worksheet (2) (Autosaved).xlsx
@@ -2831,7 +2831,7 @@
   <dimension ref="C4:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,8 +2912,8 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5">
-        <f>(D5+E5*0.2^F5)*(1+G5*LN(M5/I5))*(1-((L5-J5)/(K5-J5))^H5)</f>
-        <v>948.88970196062292</v>
+        <f>(D5+E5*0.1^F5)*(1+G5*LN(M5/I5))*(1-((L5-J5)/(K5-J5))^H5)</f>
+        <v>903.64458422484927</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
